--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_R312-LPP" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R307-NCIT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-method-glucose-vs.xlsx
+++ b/main/ig/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
